--- a/REGULAR/PATAWE, ELMA.xlsx
+++ b/REGULAR/PATAWE, ELMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="304">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1811,7 +1811,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1854,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1918,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1978,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2044,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2107,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2264,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2329,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2372,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2447,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2633,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2699,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2757,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2823,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2879,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2954,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +2997,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3063,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3119,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3217,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3280,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,7 +3346,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K411" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K412" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3724,12 +3724,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K411"/>
+  <dimension ref="A2:K412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A385" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F410" sqref="F410"/>
+      <selection pane="bottomLeft" activeCell="F406" sqref="F406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12818,10 +12818,10 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B406" s="20"/>
+      <c r="A406" s="40"/>
+      <c r="B406" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
@@ -12833,11 +12833,13 @@
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
+      <c r="K406" s="49">
+        <v>45225</v>
+      </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12855,7 +12857,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12873,7 +12875,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12890,7 +12892,9 @@
       <c r="K409" s="20"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40"/>
+      <c r="A410" s="40">
+        <v>45323</v>
+      </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
@@ -12906,20 +12910,36 @@
       <c r="K410" s="20"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="41"/>
-      <c r="B411" s="15"/>
-      <c r="C411" s="42"/>
-      <c r="D411" s="43"/>
+      <c r="A411" s="40"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="39"/>
       <c r="E411" s="9"/>
-      <c r="F411" s="15"/>
-      <c r="G411" s="42" t="str">
+      <c r="F411" s="20"/>
+      <c r="G411" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H411" s="43"/>
+      <c r="H411" s="39"/>
       <c r="I411" s="9"/>
-      <c r="J411" s="12"/>
-      <c r="K411" s="15"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="20"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="41"/>
+      <c r="B412" s="15"/>
+      <c r="C412" s="42"/>
+      <c r="D412" s="43"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="15"/>
+      <c r="G412" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H412" s="43"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="12"/>
+      <c r="K412" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
